--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H2">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I2">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J2">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>10.2562792076325</v>
+        <v>68.040584841992</v>
       </c>
       <c r="R2">
-        <v>41.02511683053</v>
+        <v>272.162339367968</v>
       </c>
       <c r="S2">
-        <v>0.0009435193684362315</v>
+        <v>0.004800514229092672</v>
       </c>
       <c r="T2">
-        <v>0.0006062982199346397</v>
+        <v>0.003351992119470302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H3">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I3">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J3">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>6.152236852690835</v>
+        <v>6.622571702423667</v>
       </c>
       <c r="R3">
-        <v>36.913421116145</v>
+        <v>39.735430214542</v>
       </c>
       <c r="S3">
-        <v>0.0005659708079516002</v>
+        <v>0.0004672468610388938</v>
       </c>
       <c r="T3">
-        <v>0.0005455326698243878</v>
+        <v>0.0004893875076625792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H4">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I4">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J4">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>0.14300047209</v>
+        <v>0.2005131621996667</v>
       </c>
       <c r="R4">
-        <v>0.8580028325400001</v>
+        <v>1.203078973198</v>
       </c>
       <c r="S4">
-        <v>1.315523031120608E-05</v>
+        <v>1.414694318832205E-05</v>
       </c>
       <c r="T4">
-        <v>1.268017327572252E-05</v>
+        <v>1.481730075742708E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H5">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I5">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J5">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>208.8899204439163</v>
+        <v>276.013503350556</v>
       </c>
       <c r="R5">
-        <v>835.5596817756651</v>
+        <v>1104.054013402224</v>
       </c>
       <c r="S5">
-        <v>0.01921668490296824</v>
+        <v>0.01947377074040551</v>
       </c>
       <c r="T5">
-        <v>0.01234849250527278</v>
+        <v>0.01359769452668577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H6">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I6">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J6">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>34.39524714878</v>
+        <v>0.8572238264216665</v>
       </c>
       <c r="R6">
-        <v>206.37148289268</v>
+        <v>5.143342958529999</v>
       </c>
       <c r="S6">
-        <v>0.003164167161408252</v>
+        <v>6.048030283412245E-05</v>
       </c>
       <c r="T6">
-        <v>0.003049903873277706</v>
+        <v>6.334618193230716E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H7">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I7">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J7">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>0.3192110036091667</v>
+        <v>0.2184018435946667</v>
       </c>
       <c r="R7">
-        <v>1.915266021655</v>
+        <v>1.310411061568</v>
       </c>
       <c r="S7">
-        <v>2.936559725276235E-05</v>
+        <v>1.54090556433491E-05</v>
       </c>
       <c r="T7">
-        <v>2.83051571657334E-05</v>
+        <v>1.613921882742172E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
         <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J8">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>370.0398154840639</v>
+        <v>2280.515541433771</v>
       </c>
       <c r="R8">
-        <v>2220.238892904384</v>
+        <v>13683.09324860262</v>
       </c>
       <c r="S8">
-        <v>0.03404155892538119</v>
+        <v>0.1608987831563043</v>
       </c>
       <c r="T8">
-        <v>0.03281226216023411</v>
+        <v>0.1685230250658678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
         <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J9">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
-        <v>221.9686636543395</v>
+        <v>221.9686636543396</v>
       </c>
       <c r="R9">
         <v>1997.717972889056</v>
       </c>
       <c r="S9">
-        <v>0.02041985491072846</v>
+        <v>0.01566070795481638</v>
       </c>
       <c r="T9">
-        <v>0.02952369047228924</v>
+        <v>0.02460419365000661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
         <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J10">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>5.159363082367999</v>
+        <v>6.720597474584889</v>
       </c>
       <c r="R10">
-        <v>46.43426774131199</v>
+        <v>60.485377271264</v>
       </c>
       <c r="S10">
-        <v>0.0004746320667037256</v>
+        <v>0.0004741629408340711</v>
       </c>
       <c r="T10">
-        <v>0.0006862384814605834</v>
+        <v>0.0007449469622700018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
         <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J11">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>7536.611089918884</v>
+        <v>9251.141587014272</v>
       </c>
       <c r="R11">
-        <v>45219.66653951331</v>
+        <v>55506.84952208563</v>
       </c>
       <c r="S11">
-        <v>0.693325366027278</v>
+        <v>0.6527021619074138</v>
       </c>
       <c r="T11">
-        <v>0.668288245032908</v>
+        <v>0.683630669132002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
         <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J12">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>1240.957919611989</v>
+        <v>28.73156165811555</v>
       </c>
       <c r="R12">
-        <v>11168.6212765079</v>
+        <v>258.58405492304</v>
       </c>
       <c r="S12">
-        <v>0.114161072340631</v>
+        <v>0.002027117651680067</v>
       </c>
       <c r="T12">
-        <v>0.1650577919629877</v>
+        <v>0.003184759935322337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
         <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J13">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>11.51692329008711</v>
+        <v>7.320172214158222</v>
       </c>
       <c r="R13">
-        <v>103.652309610784</v>
+        <v>65.88154992742399</v>
       </c>
       <c r="S13">
-        <v>0.001059491455820055</v>
+        <v>0.0005164651502493841</v>
       </c>
       <c r="T13">
-        <v>0.001531847211276317</v>
+        <v>0.0008114070326116747</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H14">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I14">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J14">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>39.02424431789999</v>
+        <v>390.947517295748</v>
       </c>
       <c r="R14">
-        <v>156.0969772716</v>
+        <v>1563.790069182992</v>
       </c>
       <c r="S14">
-        <v>0.003590008579829365</v>
+        <v>0.02758278935968869</v>
       </c>
       <c r="T14">
-        <v>0.002306911637763307</v>
+        <v>0.01925987262080479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H15">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I15">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J15">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>23.40872251823333</v>
+        <v>38.05196517913717</v>
       </c>
       <c r="R15">
-        <v>140.4523351094</v>
+        <v>228.311791074823</v>
       </c>
       <c r="S15">
-        <v>0.002153469366343513</v>
+        <v>0.00268470649850515</v>
       </c>
       <c r="T15">
-        <v>0.002075704040387314</v>
+        <v>0.002811922201441175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H16">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I16">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J16">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.5441042747999999</v>
+        <v>1.152108306081167</v>
       </c>
       <c r="R16">
-        <v>3.2646256488</v>
+        <v>6.912649836487001</v>
       </c>
       <c r="S16">
-        <v>5.005449942711278E-05</v>
+        <v>8.128549055894002E-05</v>
       </c>
       <c r="T16">
-        <v>4.824694900435796E-05</v>
+        <v>8.513723033969928E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H17">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I17">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J17">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>794.8078563309499</v>
+        <v>1585.918082944014</v>
       </c>
       <c r="R17">
-        <v>3179.2314253238</v>
+        <v>6343.672331776056</v>
       </c>
       <c r="S17">
-        <v>0.07311780339164921</v>
+        <v>0.1118923704290315</v>
       </c>
       <c r="T17">
-        <v>0.0469849327156489</v>
+        <v>0.07812961820505937</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H18">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I18">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J18">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>130.8709036616</v>
+        <v>4.925435715824166</v>
       </c>
       <c r="R18">
-        <v>785.2254219695999</v>
+        <v>29.552614294945</v>
       </c>
       <c r="S18">
-        <v>0.01203937898624885</v>
+        <v>0.000347507657278434</v>
       </c>
       <c r="T18">
-        <v>0.01160461718011016</v>
+        <v>0.0003639744222380088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H19">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I19">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J19">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>1.214569917766667</v>
+        <v>1.254893071898667</v>
       </c>
       <c r="R19">
-        <v>7.2874195066</v>
+        <v>7.529358431392</v>
       </c>
       <c r="S19">
-        <v>0.0001117335262168024</v>
+        <v>8.853733491017122E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001076986445406174</v>
+        <v>9.273270572740996E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H20">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I20">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J20">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>8.699451948334998</v>
+        <v>0.580449376024</v>
       </c>
       <c r="R20">
-        <v>52.19671169000999</v>
+        <v>3.482696256144</v>
       </c>
       <c r="S20">
-        <v>0.0008003001129226367</v>
+        <v>4.095284447278124E-05</v>
       </c>
       <c r="T20">
-        <v>0.0007713999576119139</v>
+        <v>4.289340851571683E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H21">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I21">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J21">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>5.218372841773888</v>
+        <v>0.05649668681233334</v>
       </c>
       <c r="R21">
-        <v>46.965355575965</v>
+        <v>0.508470181311</v>
       </c>
       <c r="S21">
-        <v>0.0004800606290311616</v>
+        <v>3.986049643297839E-06</v>
       </c>
       <c r="T21">
-        <v>0.0006940872734605962</v>
+        <v>6.262394880563349E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H22">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I22">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J22">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>0.12129405902</v>
+        <v>0.001710563484333334</v>
       </c>
       <c r="R22">
-        <v>1.09164653118</v>
+        <v>0.015395071359</v>
       </c>
       <c r="S22">
-        <v>1.115836373452579E-05</v>
+        <v>1.206865632530636E-07</v>
       </c>
       <c r="T22">
-        <v>1.61331252604676E-05</v>
+        <v>1.896080037888022E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H23">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I23">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J23">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>177.1819768753008</v>
+        <v>2.354651509332</v>
       </c>
       <c r="R23">
-        <v>1063.091861251805</v>
+        <v>14.127909055992</v>
       </c>
       <c r="S23">
-        <v>0.0162997343905438</v>
+        <v>0.000166129349142906</v>
       </c>
       <c r="T23">
-        <v>0.01571112413321177</v>
+        <v>0.000174001443146957</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H24">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I24">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J24">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>29.17430325017333</v>
+        <v>0.007312915318333332</v>
       </c>
       <c r="R24">
-        <v>262.56872925156</v>
+        <v>0.06581623786499999</v>
       </c>
       <c r="S24">
-        <v>0.00268387000976787</v>
+        <v>5.159531494817933E-07</v>
       </c>
       <c r="T24">
-        <v>0.003880426564373651</v>
+        <v>8.106026394724182E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H25">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I25">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J25">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,400 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>0.2707571362927778</v>
+        <v>0.001863170549333333</v>
       </c>
       <c r="R25">
-        <v>2.436814226635</v>
+        <v>0.016768534944</v>
       </c>
       <c r="S25">
-        <v>2.490811697525289E-05</v>
+        <v>1.314535545817514E-07</v>
       </c>
       <c r="T25">
-        <v>3.601296576493185E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.346763</v>
-      </c>
-      <c r="I26">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J26">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>4.533117</v>
-      </c>
-      <c r="N26">
-        <v>9.066234</v>
-      </c>
-      <c r="O26">
-        <v>0.0394235894695292</v>
-      </c>
-      <c r="P26">
-        <v>0.03654333378744622</v>
-      </c>
-      <c r="Q26">
-        <v>0.5239724167569999</v>
-      </c>
-      <c r="R26">
-        <v>3.143834500542</v>
-      </c>
-      <c r="S26">
-        <v>4.82024829597721E-05</v>
-      </c>
-      <c r="T26">
-        <v>4.646181190224527E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.346763</v>
-      </c>
-      <c r="I27">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J27">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.719193666666667</v>
-      </c>
-      <c r="N27">
-        <v>8.157581</v>
-      </c>
-      <c r="O27">
-        <v>0.02364827000997559</v>
-      </c>
-      <c r="P27">
-        <v>0.03288081968556397</v>
-      </c>
-      <c r="Q27">
-        <v>0.3143052511447778</v>
-      </c>
-      <c r="R27">
-        <v>2.828747260303</v>
-      </c>
-      <c r="S27">
-        <v>2.891429592084657E-05</v>
-      </c>
-      <c r="T27">
-        <v>4.180522960242697E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.346763</v>
-      </c>
-      <c r="I28">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J28">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.063204</v>
-      </c>
-      <c r="N28">
-        <v>0.189612</v>
-      </c>
-      <c r="O28">
-        <v>0.0005496722341011987</v>
-      </c>
-      <c r="P28">
-        <v>0.0007642704353434132</v>
-      </c>
-      <c r="Q28">
-        <v>0.007305602883999999</v>
-      </c>
-      <c r="R28">
-        <v>0.065750425956</v>
-      </c>
-      <c r="S28">
-        <v>6.720739246283377E-07</v>
-      </c>
-      <c r="T28">
-        <v>9.717063422815394E-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.346763</v>
-      </c>
-      <c r="I29">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J29">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>92.32611850000001</v>
-      </c>
-      <c r="N29">
-        <v>184.652237</v>
-      </c>
-      <c r="O29">
-        <v>0.802941330007389</v>
-      </c>
-      <c r="P29">
-        <v>0.7442790833867324</v>
-      </c>
-      <c r="Q29">
-        <v>10.67176060980517</v>
-      </c>
-      <c r="R29">
-        <v>64.030563658831</v>
-      </c>
-      <c r="S29">
-        <v>0.0009817412949496231</v>
-      </c>
-      <c r="T29">
-        <v>0.0009462889996908105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.346763</v>
-      </c>
-      <c r="I30">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J30">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>15.202168</v>
-      </c>
-      <c r="N30">
-        <v>45.606504</v>
-      </c>
-      <c r="O30">
-        <v>0.1322101393541825</v>
-      </c>
-      <c r="P30">
-        <v>0.1838264596469164</v>
-      </c>
-      <c r="Q30">
-        <v>1.757183127394667</v>
-      </c>
-      <c r="R30">
-        <v>15.814648146552</v>
-      </c>
-      <c r="S30">
-        <v>0.0001616508561265003</v>
-      </c>
-      <c r="T30">
-        <v>0.0002337200661671645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.346763</v>
-      </c>
-      <c r="I31">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J31">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.1410863333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.4232590000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.001226998924822476</v>
-      </c>
-      <c r="P31">
-        <v>0.001706033057997478</v>
-      </c>
-      <c r="Q31">
-        <v>0.01630784006855555</v>
-      </c>
-      <c r="R31">
-        <v>0.146770560617</v>
-      </c>
-      <c r="S31">
-        <v>1.50022855760324E-06</v>
-      </c>
-      <c r="T31">
-        <v>2.16907924987734E-06</v>
+        <v>2.065237869349596E-07</v>
       </c>
     </row>
   </sheetData>
